--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/61.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/61.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1275919177578482</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.517224380345658</v>
+        <v>-1.542415324136706</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2260899328589535</v>
+        <v>0.2157584865155181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1181736179185358</v>
+        <v>0.1154954562269351</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1709796425695252</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.411721521523132</v>
+        <v>-1.439638810739244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2012643315532772</v>
+        <v>0.1909267860030744</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0939024345080236</v>
+        <v>0.09008677075428775</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2230097327792497</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.395099353319717</v>
+        <v>-1.434403861570716</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1951047426387986</v>
+        <v>0.1801915721716318</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1336040011195849</v>
+        <v>0.1295144829819892</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2760381957225326</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.472037797088101</v>
+        <v>-1.512507863752365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2257136118013999</v>
+        <v>0.2094195809220755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08502808866133936</v>
+        <v>0.08496648667298781</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3227174331665828</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.473887686500678</v>
+        <v>-1.513857008289332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3352352379630184</v>
+        <v>0.317851888755022</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09955456941944786</v>
+        <v>0.09423545119752805</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3556232104497377</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.421317403530409</v>
+        <v>-1.449069404243123</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3895480643067563</v>
+        <v>0.374558653754996</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02856956137680188</v>
+        <v>0.02544737743252857</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3697134223552769</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.154308159425675</v>
+        <v>-1.17367802027784</v>
       </c>
       <c r="F8" t="n">
-        <v>0.426750175985004</v>
+        <v>0.4180319698315673</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.026508105495578</v>
+        <v>-0.02772794684907411</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3612700692267589</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5793621640443807</v>
+        <v>-0.5920021601493074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3627505894531536</v>
+        <v>0.3605524353341535</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02215388178427361</v>
+        <v>-0.02055344992848671</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.327260955232864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02602985167882297</v>
+        <v>0.01655229428283489</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3123369859958661</v>
+        <v>0.3131298828756385</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06049288560397979</v>
+        <v>-0.05786290764584216</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2651567107333917</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8133319290834884</v>
+        <v>0.7992769170085061</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1202290505991768</v>
+        <v>0.1210896486740683</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.004178299599154847</v>
+        <v>-0.005897665986907622</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1742054536994685</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5910375145602</v>
+        <v>1.574257376901507</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.267307838279095</v>
+        <v>-0.2648638861273656</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1016612354369356</v>
+        <v>0.1030866200584959</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.05672718852932039</v>
       </c>
       <c r="E13" t="n">
-        <v>2.337603599885539</v>
+        <v>2.320287951872662</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6312517755393984</v>
+        <v>-0.6241035052079111</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2238862894538627</v>
+        <v>0.2257221506908744</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07961094007348422</v>
       </c>
       <c r="E14" t="n">
-        <v>3.031281023647348</v>
+        <v>3.012031927089179</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.17580847320172</v>
+        <v>-1.160244517372464</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3959949258599832</v>
+        <v>0.3963145242945992</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2240513872147202</v>
       </c>
       <c r="E15" t="n">
-        <v>3.736932410135073</v>
+        <v>3.720107138346302</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.765513939039641</v>
+        <v>-1.740859725444131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5445563546988914</v>
+        <v>0.5393750785499166</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3706827406053696</v>
       </c>
       <c r="E16" t="n">
-        <v>4.348249805232885</v>
+        <v>4.33804583231089</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.274433581480251</v>
+        <v>-2.246233898990804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7240858959790055</v>
+        <v>0.7197463103639431</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5186588784816667</v>
       </c>
       <c r="E17" t="n">
-        <v>4.957987505777918</v>
+        <v>4.944892508848137</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.819956393494542</v>
+        <v>-2.789277383454114</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9402795989004756</v>
+        <v>0.9289716695535667</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6685195514833148</v>
       </c>
       <c r="E18" t="n">
-        <v>5.314486141337158</v>
+        <v>5.305975308213815</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.359552301332533</v>
+        <v>-3.32544584204912</v>
       </c>
       <c r="G18" t="n">
-        <v>1.133612864936752</v>
+        <v>1.119860373517437</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8195088373062899</v>
       </c>
       <c r="E19" t="n">
-        <v>5.630270132040758</v>
+        <v>5.62234360292574</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.865184166365133</v>
+        <v>-3.820693502599746</v>
       </c>
       <c r="G19" t="n">
-        <v>1.364948458579169</v>
+        <v>1.354923802336138</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9682672841287652</v>
       </c>
       <c r="E20" t="n">
-        <v>5.98106844895511</v>
+        <v>5.973434681764932</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.370536077807104</v>
+        <v>-4.324296466501143</v>
       </c>
       <c r="G20" t="n">
-        <v>1.535122426598645</v>
+        <v>1.528851832120998</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.108694150897564</v>
       </c>
       <c r="E21" t="n">
-        <v>6.188719602878047</v>
+        <v>6.186792253539523</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.680211407972735</v>
+        <v>-4.634921748120807</v>
       </c>
       <c r="G21" t="n">
-        <v>1.679485161498819</v>
+        <v>1.672055717735351</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.234263706682578</v>
       </c>
       <c r="E22" t="n">
-        <v>6.320167267448082</v>
+        <v>6.325890763078686</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.962818763464624</v>
+        <v>-4.912065434190388</v>
       </c>
       <c r="G22" t="n">
-        <v>1.877791110812622</v>
+        <v>1.867324262078949</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.340353239699569</v>
       </c>
       <c r="E23" t="n">
-        <v>6.39019713971094</v>
+        <v>6.396392713945347</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.228443792593479</v>
+        <v>-5.168787451200751</v>
       </c>
       <c r="G23" t="n">
-        <v>1.9815587453098</v>
+        <v>1.973548657062068</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.423848372706224</v>
       </c>
       <c r="E24" t="n">
-        <v>6.479918910943287</v>
+        <v>6.488666393289207</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.34931756735107</v>
+        <v>-5.28705290018423</v>
       </c>
       <c r="G24" t="n">
-        <v>2.07705646535095</v>
+        <v>2.064160302561789</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.482521908605695</v>
       </c>
       <c r="E25" t="n">
-        <v>6.483575995321068</v>
+        <v>6.499803544846626</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.376384017223119</v>
+        <v>-5.312183156867942</v>
       </c>
       <c r="G25" t="n">
-        <v>2.137544128626085</v>
+        <v>2.126933338612699</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.514866241929532</v>
       </c>
       <c r="E26" t="n">
-        <v>6.539004366582578</v>
+        <v>6.552956911983866</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.372761088403236</v>
+        <v>-5.315379141214102</v>
       </c>
       <c r="G26" t="n">
-        <v>2.166509871485527</v>
+        <v>2.15413824047837</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.519826502949411</v>
       </c>
       <c r="E27" t="n">
-        <v>6.422150883965771</v>
+        <v>6.442068453585655</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.35943432161629</v>
+        <v>-5.30520840896899</v>
       </c>
       <c r="G27" t="n">
-        <v>2.173982619617044</v>
+        <v>2.163676180021356</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.497667116473544</v>
       </c>
       <c r="E28" t="n">
-        <v>6.330561535621222</v>
+        <v>6.350261973480184</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.286582346382119</v>
+        <v>-5.225160284630205</v>
       </c>
       <c r="G28" t="n">
-        <v>2.133488156125711</v>
+        <v>2.124398508280135</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.449119304743394</v>
       </c>
       <c r="E29" t="n">
-        <v>6.23294861067311</v>
+        <v>6.253379733502816</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.123506635198637</v>
+        <v>-5.074541288388287</v>
       </c>
       <c r="G29" t="n">
-        <v>2.048629282449077</v>
+        <v>2.043161953502707</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.376702517661347</v>
       </c>
       <c r="E30" t="n">
-        <v>6.073016430657587</v>
+        <v>6.100077391243545</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.921216379063977</v>
+        <v>-4.879366976789248</v>
       </c>
       <c r="G30" t="n">
-        <v>1.995700976041557</v>
+        <v>1.993195421901476</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.284199755012925</v>
       </c>
       <c r="E31" t="n">
-        <v>5.9082988130123</v>
+        <v>5.932538280547621</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.784601161560195</v>
+        <v>-4.749658805989299</v>
       </c>
       <c r="G31" t="n">
-        <v>1.891570438741715</v>
+        <v>1.885854262159232</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.176969447025437</v>
       </c>
       <c r="E32" t="n">
-        <v>5.724669994863762</v>
+        <v>5.741923430967611</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.535715100444352</v>
+        <v>-4.502404282683757</v>
       </c>
       <c r="G32" t="n">
-        <v>1.824756678207349</v>
+        <v>1.816367219298679</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.061129371033742</v>
       </c>
       <c r="E33" t="n">
-        <v>5.464369268282579</v>
+        <v>5.475479583330221</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.381239270803018</v>
+        <v>-4.350842044115248</v>
       </c>
       <c r="G33" t="n">
-        <v>1.728897275204887</v>
+        <v>1.719250159860763</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9426582659566203</v>
       </c>
       <c r="E34" t="n">
-        <v>5.251852167200546</v>
+        <v>5.258436870826718</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.160186634810234</v>
+        <v>-4.137709228110038</v>
       </c>
       <c r="G34" t="n">
-        <v>1.582011908385682</v>
+        <v>1.571890274755048</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8269824772455555</v>
       </c>
       <c r="E35" t="n">
-        <v>4.991751494601337</v>
+        <v>4.999569457835894</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.02415145187004</v>
+        <v>-3.999828730162342</v>
       </c>
       <c r="G35" t="n">
-        <v>1.516112418945761</v>
+        <v>1.505218015817688</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7186679141469232</v>
       </c>
       <c r="E36" t="n">
-        <v>4.69455178691825</v>
+        <v>4.706867305223147</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.860344445795137</v>
+        <v>-3.838891400871539</v>
       </c>
       <c r="G36" t="n">
-        <v>1.472369517930067</v>
+        <v>1.463956272115005</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6213793537111824</v>
       </c>
       <c r="E37" t="n">
-        <v>4.379289888313947</v>
+        <v>4.389219396931405</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.719061505352202</v>
+        <v>-3.697577049513751</v>
       </c>
       <c r="G37" t="n">
-        <v>1.376189296651636</v>
+        <v>1.370035197023248</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5367769610264305</v>
       </c>
       <c r="E38" t="n">
-        <v>4.101069692249906</v>
+        <v>4.103114146358365</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.620820667067377</v>
+        <v>-3.602157399319224</v>
       </c>
       <c r="G38" t="n">
-        <v>1.265722903361735</v>
+        <v>1.261674859830158</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4651524806913124</v>
       </c>
       <c r="E39" t="n">
-        <v>3.841950991940261</v>
+        <v>3.839937033865639</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.557725592899144</v>
+        <v>-3.543740111781311</v>
       </c>
       <c r="G39" t="n">
-        <v>1.177339298094173</v>
+        <v>1.174089030807783</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4049692337966388</v>
       </c>
       <c r="E40" t="n">
-        <v>3.503257160776651</v>
+        <v>3.498884029524367</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.477473450093988</v>
+        <v>-3.465821525485393</v>
       </c>
       <c r="G40" t="n">
-        <v>1.093715513787954</v>
+        <v>1.086642263699707</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3542507346725676</v>
       </c>
       <c r="E41" t="n">
-        <v>3.286442558606251</v>
+        <v>3.286235185576157</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.384588325271688</v>
+        <v>-3.374364834888037</v>
       </c>
       <c r="G41" t="n">
-        <v>1.030865017811097</v>
+        <v>1.025453191646312</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3102406767266276</v>
       </c>
       <c r="E42" t="n">
-        <v>2.989242850923164</v>
+        <v>2.990046726375118</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.299608687301057</v>
+        <v>-3.287204730498032</v>
       </c>
       <c r="G42" t="n">
-        <v>1.016789878353782</v>
+        <v>1.006455382406963</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2700571494607699</v>
       </c>
       <c r="E43" t="n">
-        <v>2.64929502284816</v>
+        <v>2.661377551454539</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.204472955181557</v>
+        <v>-3.194375718377993</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9235708219609626</v>
+        <v>0.9156113571294004</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2315095202090819</v>
       </c>
       <c r="E44" t="n">
-        <v>2.423197427977655</v>
+        <v>2.432913464358251</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.172323731349828</v>
+        <v>-3.159260450295239</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9103068770037226</v>
+        <v>0.9020851462811588</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1927798809743068</v>
       </c>
       <c r="E45" t="n">
-        <v>2.159978840878909</v>
+        <v>2.172699346513167</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.079528569827349</v>
+        <v>-3.069252626265497</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8390571633873679</v>
+        <v>0.8304621612106343</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1529103344688672</v>
       </c>
       <c r="E46" t="n">
-        <v>2.013141657793168</v>
+        <v>2.028350639788557</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.995101824950191</v>
+        <v>-2.980348148739993</v>
       </c>
       <c r="G46" t="n">
-        <v>0.799153713031803</v>
+        <v>0.7914687125047775</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1117446101712927</v>
       </c>
       <c r="E47" t="n">
-        <v>1.789523390473644</v>
+        <v>1.809561724387524</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.920883017479427</v>
+        <v>-2.901918753877299</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7274288712082616</v>
+        <v>0.7177988336430865</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.06948613830841376</v>
       </c>
       <c r="E48" t="n">
-        <v>1.664889759704238</v>
+        <v>1.680115819478577</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.849158175655885</v>
+        <v>-2.83627787080432</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6594086875752879</v>
+        <v>0.6500464051872052</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02623879547811339</v>
       </c>
       <c r="E49" t="n">
-        <v>1.478540085416727</v>
+        <v>1.498150864936208</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.812402525913017</v>
+        <v>-2.798354222965479</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5784362284508925</v>
+        <v>0.5681163706003154</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.01799420363457972</v>
       </c>
       <c r="E50" t="n">
-        <v>1.386151131064962</v>
+        <v>1.406240088395013</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.729732047624555</v>
+        <v>-2.714733488262643</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5720442597585729</v>
+        <v>0.5561320392228928</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.06345711416800229</v>
       </c>
       <c r="E51" t="n">
-        <v>1.29606645702995</v>
+        <v>1.314082903900411</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.660247444446709</v>
+        <v>-2.650466756474377</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4812246313080801</v>
+        <v>0.4659875929615601</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1105232400426078</v>
       </c>
       <c r="E52" t="n">
-        <v>1.248341993836445</v>
+        <v>1.265241066027104</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.576238190272785</v>
+        <v>-2.565446253818405</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4043246125423314</v>
+        <v>0.3903470603932962</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1589432024405982</v>
       </c>
       <c r="E53" t="n">
-        <v>1.217487936561791</v>
+        <v>1.224628277924481</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.531744476904014</v>
+        <v>-2.527744007185224</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3972184267375398</v>
+        <v>0.3833671281685914</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.208340202305592</v>
       </c>
       <c r="E54" t="n">
-        <v>1.139296715723367</v>
+        <v>1.146094281665724</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.47276087801774</v>
+        <v>-2.471917357721797</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3431928730325503</v>
+        <v>0.3303156177843686</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2579136364262415</v>
       </c>
       <c r="E55" t="n">
-        <v>1.129323902737859</v>
+        <v>1.122838006261321</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.45100805708152</v>
+        <v>-2.449500943089276</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3145327004321591</v>
+        <v>0.3008058256812673</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3069297323202766</v>
       </c>
       <c r="E56" t="n">
-        <v>1.112315654746063</v>
+        <v>1.109297157316837</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.416585353927213</v>
+        <v>-2.419484306903797</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2660903606021213</v>
+        <v>0.2581327255325894</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3550552968675075</v>
       </c>
       <c r="E57" t="n">
-        <v>1.013773820607263</v>
+        <v>1.000365934370311</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.383192196875257</v>
+        <v>-2.385701410539399</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2319396820696441</v>
+        <v>0.2226371719078827</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4018829317681262</v>
       </c>
       <c r="E58" t="n">
-        <v>1.023819214153304</v>
+        <v>1.004486558462421</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.410954566239476</v>
+        <v>-2.409895743944641</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2254232895592678</v>
+        <v>0.2120745656279598</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4472294118751249</v>
       </c>
       <c r="E59" t="n">
-        <v>1.009097558778636</v>
+        <v>0.9855070468433744</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.340860042384882</v>
+        <v>-2.345824796693611</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2202969062712004</v>
+        <v>0.2080021252693131</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4907544864007271</v>
       </c>
       <c r="E60" t="n">
-        <v>1.012163630020648</v>
+        <v>0.9795920361202717</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.359920673453935</v>
+        <v>-2.366019880221416</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2011905311513907</v>
+        <v>0.1894837136818885</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5321188915309182</v>
       </c>
       <c r="E61" t="n">
-        <v>1.125820518370619</v>
+        <v>1.082021504652664</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.385988073257471</v>
+        <v>-2.387445783674898</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2198565435425883</v>
+        <v>0.2042559924727265</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5710297167381313</v>
       </c>
       <c r="E62" t="n">
-        <v>1.155365685872971</v>
+        <v>1.103147327133186</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.373124236264177</v>
+        <v>-2.37474418558162</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1876594409377351</v>
+        <v>0.1687952043265944</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6068659486738532</v>
       </c>
       <c r="E63" t="n">
-        <v>1.224942387073006</v>
+        <v>1.162695712566129</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.383941179466304</v>
+        <v>-2.387949578153892</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1550555212414909</v>
+        <v>0.1382162212771537</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6387116407397363</v>
       </c>
       <c r="E64" t="n">
-        <v>1.320865831746526</v>
+        <v>1.246828780637433</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.448862966061398</v>
+        <v>-2.449330165299787</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1800860558945544</v>
+        <v>0.1638615559723793</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6655923166209028</v>
       </c>
       <c r="E65" t="n">
-        <v>1.370333448234178</v>
+        <v>1.285012864605245</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.582338006960943</v>
+        <v>-2.583368772904647</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1474668881813916</v>
+        <v>0.1296663532304995</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6865623970511172</v>
       </c>
       <c r="E66" t="n">
-        <v>1.418919119423251</v>
+        <v>1.326418549587641</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.667010244910492</v>
+        <v>-2.663283629575561</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1530122869743849</v>
+        <v>0.1332276800620314</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7009230220826163</v>
       </c>
       <c r="E67" t="n">
-        <v>1.471674818279251</v>
+        <v>1.371203195119221</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.716650468949663</v>
+        <v>-2.711306953900673</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1117621317645602</v>
+        <v>0.09262099116617593</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7082574229449432</v>
       </c>
       <c r="E68" t="n">
-        <v>1.517144404730819</v>
+        <v>1.406823782482661</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.814828180444444</v>
+        <v>-2.8046858095108</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07390374543813152</v>
+        <v>0.05582142713458186</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7082613073209535</v>
       </c>
       <c r="E69" t="n">
-        <v>1.51555373160586</v>
+        <v>1.395976953167373</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.867227075704546</v>
+        <v>-2.849236245502509</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1073719227333277</v>
+        <v>0.08649921733365568</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7010788659975999</v>
       </c>
       <c r="E70" t="n">
-        <v>1.535431046461079</v>
+        <v>1.409234188997169</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.905502647773871</v>
+        <v>-2.890393082848791</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1072883636006132</v>
+        <v>0.08425043979848558</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6867492176304513</v>
       </c>
       <c r="E71" t="n">
-        <v>1.529401980571425</v>
+        <v>1.398759411294698</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.978839509946057</v>
+        <v>-2.959272034794626</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1038459713010472</v>
+        <v>0.07982607520935517</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6649711704986071</v>
       </c>
       <c r="E72" t="n">
-        <v>1.519097980658443</v>
+        <v>1.390732245268017</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.052521587221283</v>
+        <v>-3.033383191265944</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05973650795862764</v>
+        <v>0.03474561814955272</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6357377264192413</v>
       </c>
       <c r="E73" t="n">
-        <v>1.55966685447234</v>
+        <v>1.432347133042537</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.11802035877658</v>
+        <v>-3.093422257883331</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0008249557183940245</v>
+        <v>-0.02329077392573199</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5991146427574279</v>
       </c>
       <c r="E74" t="n">
-        <v>1.53673444694729</v>
+        <v>1.414687489767973</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.165650894185867</v>
+        <v>-3.140770400019283</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.02281564571854525</v>
+        <v>-0.04619085565491458</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5552902435342072</v>
       </c>
       <c r="E75" t="n">
-        <v>1.511312953140431</v>
+        <v>1.396746673061429</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.177605339450128</v>
+        <v>-3.148416975543673</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.008051905817181763</v>
+        <v>-0.03329530278643038</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5043941658753085</v>
       </c>
       <c r="E76" t="n">
-        <v>1.517806778585767</v>
+        <v>1.410407066458556</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.246735578714783</v>
+        <v>-3.214913272365792</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01943119588327028</v>
+        <v>-0.04617682747934937</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4470713714591739</v>
       </c>
       <c r="E77" t="n">
-        <v>1.396383770258764</v>
+        <v>1.30573308983573</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.268660092321507</v>
+        <v>-3.233505484355103</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02697957417870425</v>
+        <v>-0.05871313706922895</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3837096513575556</v>
       </c>
       <c r="E78" t="n">
-        <v>1.43404210260322</v>
+        <v>1.345474911211957</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.26523477780089</v>
+        <v>-3.224400893452946</v>
       </c>
       <c r="G78" t="n">
-        <v>0.003329214010936998</v>
+        <v>-0.02951562435262267</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3153356787815539</v>
       </c>
       <c r="E79" t="n">
-        <v>1.456684187886138</v>
+        <v>1.366861169821451</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.221461075791021</v>
+        <v>-3.181654602823059</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04212138889346698</v>
+        <v>0.006559963835671461</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2429604997073189</v>
       </c>
       <c r="E80" t="n">
-        <v>1.490005374298238</v>
+        <v>1.408396157987317</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.171561025543555</v>
+        <v>-3.137324653155995</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03246329497716148</v>
+        <v>-0.00231804153507327</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1682837809454855</v>
       </c>
       <c r="E81" t="n">
-        <v>1.618394896595057</v>
+        <v>1.54330268271519</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.057733969324772</v>
+        <v>-3.025292898449219</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008173204025670074</v>
+        <v>-0.0229254314403599</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09290423494896216</v>
       </c>
       <c r="E82" t="n">
-        <v>1.692893657656449</v>
+        <v>1.61773984178823</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.938251728591181</v>
+        <v>-2.90914875357947</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02913007847873334</v>
+        <v>-0.0004278973578310388</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01896047394221574</v>
       </c>
       <c r="E83" t="n">
-        <v>1.86925405110018</v>
+        <v>1.792402825988571</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.801513612071034</v>
+        <v>-2.773850049856449</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07553345348640234</v>
+        <v>0.04259468733862348</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.05167212787592747</v>
       </c>
       <c r="E84" t="n">
-        <v>2.066801259092109</v>
+        <v>1.992992928236796</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.71918102983749</v>
+        <v>-2.689421780177599</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03658757859333185</v>
+        <v>0.007571822238396489</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1167678608701609</v>
       </c>
       <c r="E85" t="n">
-        <v>2.210036250660976</v>
+        <v>2.144144080269176</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.504959200463947</v>
+        <v>-2.479345581643912</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08458528625002026</v>
+        <v>0.05447228259761516</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1743096714857917</v>
       </c>
       <c r="E86" t="n">
-        <v>2.365816090709197</v>
+        <v>2.300272794944497</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.317731240401919</v>
+        <v>-2.293072147440995</v>
       </c>
       <c r="G86" t="n">
-        <v>0.08480058824891233</v>
+        <v>0.05626727914928469</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2220165801445647</v>
       </c>
       <c r="E87" t="n">
-        <v>2.478647756383527</v>
+        <v>2.415821047313063</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.054529731082122</v>
+        <v>-2.032965375635018</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1005243432954773</v>
+        <v>0.07140246074278775</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2576372255020957</v>
       </c>
       <c r="E88" t="n">
-        <v>2.571969279450041</v>
+        <v>2.510512452219553</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.75094842335822</v>
+        <v>-1.734328694837513</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1097939177406942</v>
+        <v>0.08262256151224502</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2788756903066562</v>
       </c>
       <c r="E89" t="n">
-        <v>2.6039327824357</v>
+        <v>2.544319135490344</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.546961062940509</v>
+        <v>-1.537399946411807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05793175267613013</v>
+        <v>0.03538542493946142</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2837829251539475</v>
       </c>
       <c r="E90" t="n">
-        <v>2.661175057789858</v>
+        <v>2.606148014333649</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.321169038329055</v>
+        <v>-1.317227120995232</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05605502675377636</v>
+        <v>0.03137946593458019</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2721752044980317</v>
       </c>
       <c r="E91" t="n">
-        <v>2.66508708901052</v>
+        <v>2.610995663872442</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9595678063881408</v>
+        <v>-0.9579289495297187</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05861059438935073</v>
+        <v>0.03941944029547308</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2454853693840385</v>
       </c>
       <c r="E92" t="n">
-        <v>2.598350788402101</v>
+        <v>2.542235646458573</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7510969190756546</v>
+        <v>-0.7556298495452461</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04832001273125749</v>
+        <v>0.02582064888669838</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2077296110439218</v>
       </c>
       <c r="E93" t="n">
-        <v>2.52267793003797</v>
+        <v>2.470702929648207</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4280670707322876</v>
+        <v>-0.4432961801100099</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03568375215657578</v>
+        <v>-0.05026207617220786</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1634976851625331</v>
       </c>
       <c r="E94" t="n">
-        <v>2.471110356660275</v>
+        <v>2.420408870643563</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1617384981028039</v>
+        <v>-0.1836675861146036</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08318864390645177</v>
+        <v>-0.09262228701371399</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1186141816465807</v>
       </c>
       <c r="E95" t="n">
-        <v>2.321668812284819</v>
+        <v>2.278132674378543</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05079629067885461</v>
+        <v>0.02687947118153301</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1323031163222659</v>
+        <v>-0.137132468240757</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07862946147684002</v>
       </c>
       <c r="E96" t="n">
-        <v>2.16267956963555</v>
+        <v>2.124291162241027</v>
       </c>
       <c r="F96" t="n">
-        <v>0.221353288883328</v>
+        <v>0.1936525215074615</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1861328854900192</v>
+        <v>-0.1888500821049318</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04747565834389846</v>
       </c>
       <c r="E97" t="n">
-        <v>1.989594450225955</v>
+        <v>1.957249746817329</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3502496552625254</v>
+        <v>0.3239266986954327</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2063645642584291</v>
+        <v>-0.2056393685737756</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02701544115398081</v>
       </c>
       <c r="E98" t="n">
-        <v>1.777057831682267</v>
+        <v>1.754381590841451</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4468373035530246</v>
+        <v>0.4197983001114297</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3425141073255143</v>
+        <v>-0.3340813440487956</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.01687951663522946</v>
       </c>
       <c r="E99" t="n">
-        <v>1.612618337865576</v>
+        <v>1.59640725619829</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4998076944872399</v>
+        <v>0.4714097877778503</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3283907841347363</v>
+        <v>-0.3226990043793234</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01343090576920934</v>
       </c>
       <c r="E100" t="n">
-        <v>1.431632306009388</v>
+        <v>1.42263292642397</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5220319841065857</v>
+        <v>0.4988427999766245</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4268752857299219</v>
+        <v>-0.4126818216613179</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01205701490669856</v>
       </c>
       <c r="E101" t="n">
-        <v>1.291655510695709</v>
+        <v>1.294719142255014</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5225577357299425</v>
+        <v>0.5084386819839016</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4297614303722938</v>
+        <v>-0.4152806936649414</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.007890015059438538</v>
       </c>
       <c r="E102" t="n">
-        <v>1.077879533336868</v>
+        <v>1.091881482312973</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4774864274802912</v>
+        <v>0.4653709631573678</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4657138145838848</v>
+        <v>-0.4519161890344902</v>
       </c>
     </row>
   </sheetData>
